--- a/qa - 27.4.xlsx
+++ b/qa - 27.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval Mor\.vscode\WDM_Information_Extraction_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7EB284-22C8-436B-A7AC-7941B3631949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37C67DB-A4D6-451B-A1CB-C8BEF98A98BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1200" windowWidth="21600" windowHeight="11235" xr2:uid="{FE40923E-B6CD-43DC-ADCD-0AFB58BED0FB}"/>
   </bookViews>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5DB2EA-CAFF-4333-A57B-FF15E41828F8}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +751,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -831,7 +831,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -839,7 +839,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -847,7 +847,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -855,7 +855,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -864,7 +864,7 @@
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="1">
@@ -875,7 +875,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="1">
@@ -886,7 +886,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="1">
@@ -897,7 +897,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="1">
@@ -905,7 +905,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="1">
@@ -913,7 +913,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -921,7 +921,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -929,7 +929,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -937,7 +937,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -945,7 +945,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -953,7 +953,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -961,7 +961,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -969,7 +969,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B37" s="1" t="s">

--- a/qa - 27.4.xlsx
+++ b/qa - 27.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval Mor\.vscode\WDM_Information_Extraction_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37C67DB-A4D6-451B-A1CB-C8BEF98A98BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B924EE6-15BE-422F-954F-D133ED304933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1200" windowWidth="21600" windowHeight="11235" xr2:uid="{FE40923E-B6CD-43DC-ADCD-0AFB58BED0FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE40923E-B6CD-43DC-ADCD-0AFB58BED0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -661,7 +661,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="1">
@@ -929,7 +929,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="1" t="s">

--- a/qa - 27.4.xlsx
+++ b/qa - 27.4.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval Mor\.vscode\WDM_Information_Extraction_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Desktop\Liron\Studies\WDM\WDM_Information_Extraction_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B924EE6-15BE-422F-954F-D133ED304933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE40923E-B6CD-43DC-ADCD-0AFB58BED0FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -148,9 +147,6 @@
     <t>Nuuk</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sierra leone</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Niue, Tonga</t>
   </si>
   <si>
@@ -251,17 +247,20 @@
   </si>
   <si>
     <t>vatican city, brunei, saudi arabia, eswatini, oman</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -279,19 +278,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,11 +293,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -318,12 +305,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -339,12 +325,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -657,20 +639,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5DB2EA-CAFF-4333-A57B-FF15E41828F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="50.25" customWidth="1"/>
+    <col min="2" max="2" width="45.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -678,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -686,7 +668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -694,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -702,7 +684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -710,7 +692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -718,7 +700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -726,7 +708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -734,7 +716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -742,7 +724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -750,7 +732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -758,7 +740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -766,7 +748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -774,15 +756,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
@@ -790,7 +772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -798,7 +780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -806,23 +788,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
@@ -830,162 +812,162 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1">
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="B36" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
     </row>
   </sheetData>
